--- a/data/Register.xlsx
+++ b/data/Register.xlsx
@@ -34,10 +34,10 @@
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>Zehra</t>
-  </si>
-  <si>
-    <t>Temizel</t>
+    <t>software</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>softwaretestdemotobeto@gmail.com</t>
@@ -51,19 +51,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -99,15 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -424,15 +415,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,10 +453,10 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>12345678</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>12345678</v>
       </c>
       <c r="F2" s="1" t="s">
